--- a/pjl15/cheat sheet.xlsx
+++ b/pjl15/cheat sheet.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ui\Documents\trainings\classes\pjl15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ui\Documents\trainings\classes\ang-15.2\pjl15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901B44F9-B4D1-4A62-B373-FB6EFFDAB47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C337F1F-80CD-46C9-A5F9-EA6D82609AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC40CBF9-82EE-4388-9EFD-13690CF5D6DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EC40CBF9-82EE-4388-9EFD-13690CF5D6DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="git command" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>index.html</t>
   </si>
@@ -91,6 +92,36 @@
   </si>
   <si>
     <t>app-root</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/maheshp212/ang-15.2.git</t>
+  </si>
+  <si>
+    <t>to get the code from git hub to your local machine</t>
+  </si>
+  <si>
+    <t>to add new files that you have created</t>
+  </si>
+  <si>
+    <t>git add . (dot)</t>
+  </si>
+  <si>
+    <t>to commit the files you have changed / created / removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git commit -m " commit message"</t>
+  </si>
+  <si>
+    <t>to push your changes into github</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>to get the latest code from github to your local machine</t>
+  </si>
+  <si>
+    <t>git pull</t>
   </si>
 </sst>
 </file>
@@ -444,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123C925-5462-4845-BB55-A193D12BC251}">
   <dimension ref="E3:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -537,4 +568,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757BCB66-1EE8-485C-88C4-6A9BA0C24126}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="2" max="2" width="79.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pjl15/cheat sheet.xlsx
+++ b/pjl15/cheat sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ui\Documents\trainings\classes\ang-15.2\pjl15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C337F1F-80CD-46C9-A5F9-EA6D82609AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2724AB2-33BE-432F-9A13-F0D6F91ADADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EC40CBF9-82EE-4388-9EFD-13690CF5D6DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EC40CBF9-82EE-4388-9EFD-13690CF5D6DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="git command" sheetId="2" r:id="rId2"/>
+    <sheet name="steps to setup project from git" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>index.html</t>
   </si>
@@ -122,16 +123,54 @@
   </si>
   <si>
     <t>git pull</t>
+  </si>
+  <si>
+    <t>install agnular cli</t>
+  </si>
+  <si>
+    <t>npm install -g @angular/cli@15.2.5</t>
+  </si>
+  <si>
+    <t>install git in your machine</t>
+  </si>
+  <si>
+    <t>https://git-scm.com/download/win</t>
+  </si>
+  <si>
+    <t>clone your repo to any folder</t>
+  </si>
+  <si>
+    <t>https://github.com/maheshp212/ang-15.2</t>
+  </si>
+  <si>
+    <t>npm install</t>
+  </si>
+  <si>
+    <t>do npm install inside your pjl15 folder</t>
+  </si>
+  <si>
+    <t>run ng serve command in pjl15 folder</t>
+  </si>
+  <si>
+    <t>ng serve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,13 +193,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -574,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757BCB66-1EE8-485C-88C4-6A9BA0C24126}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,4 +669,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47DDD73-6DE2-4A9C-BF43-4D7895506D1B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FE3D011C-489F-4120-8F04-72191491D189}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{DFD2E41E-BE67-40FC-884C-2127022D964B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pjl15/cheat sheet.xlsx
+++ b/pjl15/cheat sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ui\Documents\trainings\classes\ang-15.2\pjl15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2724AB2-33BE-432F-9A13-F0D6F91ADADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5534B1E6-36E9-4858-95E9-8EE8B5CA1B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EC40CBF9-82EE-4388-9EFD-13690CF5D6DA}"/>
   </bookViews>

--- a/pjl15/cheat sheet.xlsx
+++ b/pjl15/cheat sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ui\Documents\trainings\classes\ang-15.2\pjl15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5534B1E6-36E9-4858-95E9-8EE8B5CA1B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4636E61-3C6F-4551-9C80-3FF67519B469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EC40CBF9-82EE-4388-9EFD-13690CF5D6DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC40CBF9-82EE-4388-9EFD-13690CF5D6DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>index.html</t>
   </si>
@@ -153,13 +153,67 @@
   </si>
   <si>
     <t>ng serve</t>
+  </si>
+  <si>
+    <t>npm install -g @angular/cli@15.2
+ng new pjl15
+cd pjl15
+ng serve</t>
+  </si>
+  <si>
+    <t>SRC</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>ng g c &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>ng generate component &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>Directives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ngIf </t>
+  </si>
+  <si>
+    <t>[hidden]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ngFor </t>
+  </si>
+  <si>
+    <t>[(ngModel)]</t>
+  </si>
+  <si>
+    <t>[ngSwitch]</t>
+  </si>
+  <si>
+    <t>*ngSwitchCase</t>
+  </si>
+  <si>
+    <t>*ngSwitchDefault</t>
+  </si>
+  <si>
+    <t>[ngClass]</t>
+  </si>
+  <si>
+    <t>[ngStyle]</t>
+  </si>
+  <si>
+    <t>(click)</t>
+  </si>
+  <si>
+    <t>(mouseover)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +228,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,9 +273,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -515,15 +602,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123C925-5462-4845-BB55-A193D12BC251}">
-  <dimension ref="E3:M13"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -531,24 +637,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -562,7 +676,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="G7" t="s">
         <v>19</v>
       </c>
@@ -570,12 +686,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="J8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>2</v>
       </c>
@@ -586,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
         <v>7</v>
       </c>
@@ -597,17 +715,83 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -673,18 +857,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47DDD73-6DE2-4A9C-BF43-4D7895506D1B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -692,7 +878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -700,7 +886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -708,7 +894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -716,12 +902,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/pjl15/cheat sheet.xlsx
+++ b/pjl15/cheat sheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ui\Documents\trainings\classes\ang-15.2\pjl15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4636E61-3C6F-4551-9C80-3FF67519B469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E77EBA-BA2E-4E7A-B091-9D64EE598AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC40CBF9-82EE-4388-9EFD-13690CF5D6DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EC40CBF9-82EE-4388-9EFD-13690CF5D6DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="git command" sheetId="2" r:id="rId2"/>
-    <sheet name="steps to setup project from git" sheetId="3" r:id="rId3"/>
+    <sheet name="life cycle" sheetId="4" r:id="rId2"/>
+    <sheet name="git command" sheetId="2" r:id="rId3"/>
+    <sheet name="steps to setup project from git" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>index.html</t>
   </si>
@@ -207,6 +208,39 @@
   </si>
   <si>
     <t>(mouseover)</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>onInit</t>
+  </si>
+  <si>
+    <t>DoCheck</t>
+  </si>
+  <si>
+    <t>AfterContentInit</t>
+  </si>
+  <si>
+    <t>AfterContentChecked</t>
+  </si>
+  <si>
+    <t>AfterviewInit</t>
+  </si>
+  <si>
+    <t>AfterViewChecked</t>
+  </si>
+  <si>
+    <t>onDestroy</t>
   </si>
 </sst>
 </file>
@@ -277,16 +311,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -604,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123C925-5462-4845-BB55-A193D12BC251}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -615,21 +649,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
       <c r="F1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -638,12 +672,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="G5" t="s">
         <v>18</v>
       </c>
@@ -661,8 +695,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -677,8 +711,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="G7" t="s">
         <v>19</v>
       </c>
@@ -687,8 +721,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="J8" t="s">
         <v>14</v>
       </c>
@@ -726,65 +760,65 @@
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="5"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -797,6 +831,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3D38F7-0719-40F0-93ED-4826B3BAAEE3}">
+  <dimension ref="F7:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757BCB66-1EE8-485C-88C4-6A9BA0C24126}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -855,7 +951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47DDD73-6DE2-4A9C-BF43-4D7895506D1B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
